--- a/August/Others - Copy/Cash.xlsx
+++ b/August/Others - Copy/Cash.xlsx
@@ -101,14 +101,14 @@
     <t>Total=</t>
   </si>
   <si>
-    <t>Date: 17.07.19</t>
+    <t>Date: 30.07.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +208,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,47 +440,135 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -436,28 +576,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -481,10 +603,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,7 +2052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1955,60 +2074,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
@@ -2017,10 +2136,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2035,10 +2154,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="34">
         <v>50</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2054,10 +2173,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="34">
         <v>16</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2073,10 +2192,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="34">
         <v>151</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2092,10 +2211,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="34">
         <v>58</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2111,8 +2230,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2128,8 +2247,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2142,10 +2261,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2192,58 +2311,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -2253,11 +2372,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -2332,60 +2451,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1">
       <c r="A31" s="6"/>
@@ -2394,10 +2513,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -2412,10 +2531,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="34">
         <v>50</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -2431,10 +2550,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="34">
         <v>116</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -2450,10 +2569,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="34">
         <v>151</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -2469,10 +2588,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="34">
         <v>58</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -2488,8 +2607,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -2505,8 +2624,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2519,10 +2638,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -2569,58 +2688,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6"/>
@@ -2630,11 +2749,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -2662,14 +2781,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A27:J27"/>
@@ -2682,24 +2811,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -2712,7 +2831,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="H46" sqref="A1:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2730,688 +2849,681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="21">
         <v>1000</v>
       </c>
-      <c r="E6" s="25">
-        <v>17</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="3">
+      <c r="E6" s="42">
+        <v>94</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="21">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>17000</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>94000</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="21">
         <v>500</v>
       </c>
-      <c r="E7" s="25">
-        <v>104</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="3">
+      <c r="E7" s="42">
+        <v>150</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
-        <v>52000</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+        <v>75000</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="21">
         <v>100</v>
       </c>
-      <c r="E8" s="25">
-        <v>135</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="3">
+      <c r="E8" s="42">
+        <v>300</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>13500</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>30000</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="21">
         <v>50</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="3">
+      <c r="E9" s="42">
+        <v>120</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="21">
+        <v>20</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="21">
+        <v>10</v>
+      </c>
+      <c r="E11" s="42">
+        <v>200</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27">
+        <f>SUM(G6:G11)</f>
+        <v>207000</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="H19" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.5">
+      <c r="A28" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" ht="18">
+      <c r="A29" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
+      <c r="A30" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A31" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="42">
+        <v>94</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="23">
+        <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
+        <v>94000</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="23">
+        <v>500</v>
+      </c>
+      <c r="E34" s="42">
+        <v>150</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="23">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="23">
+        <v>100</v>
+      </c>
+      <c r="E35" s="42">
+        <v>300</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="23">
+        <v>50</v>
+      </c>
+      <c r="E36" s="42">
+        <v>120</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="23">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="25">
-        <v>25</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3">
+      <c r="E37" s="42">
+        <v>0</v>
+      </c>
+      <c r="F37" s="42"/>
+      <c r="G37" s="23">
+        <f>SUM(D37*E37)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
-        <f>SUM(G6:G11)</f>
-        <v>83000</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="26" t="s">
+      <c r="E38" s="42">
+        <v>200</v>
+      </c>
+      <c r="F38" s="42"/>
+      <c r="G38" s="23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25">
+        <f>SUM(G33:G38)</f>
+        <v>207000</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="15.75">
+      <c r="A43" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="26" t="s">
+      <c r="B43" s="52"/>
+      <c r="H43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="28" t="s">
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+    </row>
+    <row r="46" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="H46" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="25">
-        <v>17</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="2">
-        <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>17000</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="2">
-        <v>500</v>
-      </c>
-      <c r="E34" s="25">
-        <v>104</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="2">
-        <f t="shared" si="1"/>
-        <v>52000</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="2">
-        <v>100</v>
-      </c>
-      <c r="E35" s="25">
-        <v>135</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="2">
-        <f t="shared" si="1"/>
-        <v>13500</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="2">
-        <v>50</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="2">
-        <v>20</v>
-      </c>
-      <c r="E37" s="25">
-        <v>25</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="2">
-        <f>SUM(D37*E37)</f>
-        <v>500</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="2">
-        <v>10</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9">
-        <f>SUM(G33:G38)</f>
-        <v>83000</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A43" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-    </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -3421,9 +3533,9 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6"/>
@@ -3451,28 +3563,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A43:B43"/>
@@ -3489,6 +3579,28 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -3519,63 +3631,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -3585,10 +3697,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3603,10 +3715,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="34">
         <v>68</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -3622,10 +3734,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="34">
         <v>135</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -3641,10 +3753,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="34">
         <v>53</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -3660,10 +3772,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="34">
         <v>2</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3679,10 +3791,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3698,8 +3810,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3712,10 +3824,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -3762,76 +3874,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -3906,60 +4018,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="6"/>
@@ -3968,10 +4080,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -3986,10 +4098,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="62">
         <v>68</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4005,10 +4117,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="62">
         <v>135</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4024,10 +4136,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="62">
         <v>53</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4043,10 +4155,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="62">
         <v>2</v>
       </c>
-      <c r="F35" s="38"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4062,10 +4174,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="62">
         <v>5</v>
       </c>
-      <c r="F36" s="38"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4081,8 +4193,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4095,10 +4207,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="41"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4145,76 +4257,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -4242,30 +4354,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4282,6 +4370,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4313,63 +4425,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -4379,10 +4491,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4397,10 +4509,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="34">
         <v>44</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -4416,10 +4528,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="34">
         <v>118</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -4435,10 +4547,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="34">
         <v>510</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -4454,8 +4566,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4471,8 +4583,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4488,8 +4600,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4502,10 +4614,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4552,72 +4664,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -4692,60 +4804,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="23.25">
       <c r="A31" s="6"/>
@@ -4754,10 +4866,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -4772,10 +4884,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="34">
         <v>44</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -4791,10 +4903,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="34">
         <v>118</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -4810,10 +4922,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="34">
         <v>510</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -4829,8 +4941,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4846,8 +4958,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4863,8 +4975,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4877,10 +4989,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -4927,72 +5039,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5020,6 +5132,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5032,34 +5172,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5084,64 +5196,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5152,8 +5264,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5164,8 +5276,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5176,8 +5288,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5188,8 +5300,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5200,8 +5312,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5212,8 +5324,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5223,8 +5335,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5268,52 +5380,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -5323,9 +5435,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -5412,60 +5524,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="6" t="s">
@@ -5476,10 +5588,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="37"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -5494,10 +5606,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="34">
         <v>30</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -5513,10 +5625,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="34">
         <v>35</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -5532,10 +5644,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="34">
         <v>425</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -5551,8 +5663,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5568,8 +5680,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -5585,10 +5697,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="62">
         <v>100</v>
       </c>
-      <c r="F38" s="38"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -5601,10 +5713,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20">
         <f>SUM(G33:G38)</f>
@@ -5651,58 +5763,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="34" t="s">
+      <c r="H43" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5712,20 +5824,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -5738,24 +5860,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5781,177 +5893,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="53">
+      <c r="A5" s="68">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="52">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="67">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="53"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="52"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="53">
+      <c r="A7" s="68">
         <v>2</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="52">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="67">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="53"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="52"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="67"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="53">
+      <c r="A9" s="68">
         <v>3</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="52">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="53"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="52"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="53">
+      <c r="A11" s="68">
         <v>4</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="52">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="67">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="53"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="52">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="67">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="6" t="s">
@@ -5962,10 +6074,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -5980,8 +6092,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -5997,10 +6109,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="34">
         <v>30</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6016,8 +6128,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6033,10 +6145,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="34">
         <v>5</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6052,8 +6164,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6069,10 +6181,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="62">
         <v>2</v>
       </c>
-      <c r="F31" s="38"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6085,10 +6197,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20">
         <f>SUM(G26:G31)</f>
@@ -6135,58 +6247,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6"/>
@@ -6196,12 +6308,31 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B9:F10"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:F6"/>
@@ -6216,25 +6347,6 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B9:F10"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
